--- a/Estadisticas.xlsx
+++ b/Estadisticas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosalvarado/Desktop/SO/proyecto-Threads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FD5451-0F2F-0045-8850-E299A8335109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEAAFAE-985F-D24F-A7E7-C1642EBE9030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4120" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{289B63FF-1DC6-F343-9452-A160B45A3503}"/>
   </bookViews>
@@ -10150,8 +10150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2973C34B-210D-8040-B063-05E5561CC03C}">
   <dimension ref="B19:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="112" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Estadisticas.xlsx
+++ b/Estadisticas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosalvarado/Desktop/SO/proyecto-Threads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEAAFAE-985F-D24F-A7E7-C1642EBE9030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5317C0-09F6-4744-8906-D9DAC01ADA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4120" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{289B63FF-1DC6-F343-9452-A160B45A3503}"/>
   </bookViews>
@@ -17,7 +17,13 @@
     <sheet name="Archivos" sheetId="2" r:id="rId2"/>
     <sheet name="Gráficas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Archivos!$G$21:$G$26</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Archivos!$H$21:$H$26</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Archivos!$G$21:$G$26</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Archivos!$H$21:$H$26</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="40">
   <si>
     <t>Caso</t>
   </si>
@@ -114,18 +120,89 @@
   <si>
     <t>Factor amdahl's law funciones</t>
   </si>
+  <si>
+    <t>C2H2</t>
+  </si>
+  <si>
+    <t>C4H8</t>
+  </si>
+  <si>
+    <t>C2H8</t>
+  </si>
+  <si>
+    <t>Tiempos promedios</t>
+  </si>
+  <si>
+    <t>CISC</t>
+  </si>
+  <si>
+    <t>RISC</t>
+  </si>
+  <si>
+    <t>Más</t>
+  </si>
+  <si>
+    <t>menos</t>
+  </si>
+  <si>
+    <t>Uso de memoria</t>
+  </si>
+  <si>
+    <t>Rendimiento</t>
+  </si>
+  <si>
+    <t> mejor rendimiento gracias al menor número de instrucciones y la simplicidad de las mismas</t>
+  </si>
+  <si>
+    <t>Clocks de relok</t>
+  </si>
+  <si>
+    <t>Requiere más para 1 instrucción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menos o hasta solo 1 ciclo por instrucción </t>
+  </si>
+  <si>
+    <r>
+      <t>sufre un </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF2C2F34"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>descenso debido a la velocidad del reloj</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2C2F34"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -405,7 +482,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -416,17 +492,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,6 +1073,332 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Tiempos paralelización archivos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Archivos!$G$23:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2795.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2143.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2205.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92EF-4446-9D22-7D8032C47245}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="227655248"/>
+        <c:axId val="227657520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="227655248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227657520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227657520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227655248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Tiempos entre los 6 casos</a:t>
             </a:r>
           </a:p>
@@ -1419,7 +1824,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1650,7 +2054,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2165,7 +2569,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2586,7 +2990,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3246,7 +3650,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3686,7 +4090,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4172,6 +4576,332 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempos paralelización archivos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Archivos!$G$23:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2795.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2143.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2205.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72C3-824C-A3EA-1BF10A219250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="227655248"/>
+        <c:axId val="227657520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="227655248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227657520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227657520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227655248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4487,6 +5217,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5507,7 +6317,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5615,6 +6425,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5625,6 +6440,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5656,6 +6476,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6513,7 +7336,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6621,11 +7444,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6636,11 +7454,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6672,9 +7485,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7029,7 +7839,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7137,6 +7947,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7147,6 +7962,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7178,6 +7998,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7681,6 +8504,1025 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8076,6 +9918,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>420168</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>40830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>351327</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>149077</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38E07B9-E63D-08BC-1341-B9A6DB03C5D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8431,6 +10314,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>153517</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>195385</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0688BB-5BB4-DD45-BF6F-2595A7C367AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8774,62 +10695,62 @@
       </c>
     </row>
     <row r="2" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="J2" s="15" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="N2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="R2" s="15" t="s">
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="R2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="7"/>
+      <c r="R3" s="6"/>
       <c r="S3" s="1" t="s">
         <v>1</v>
       </c>
@@ -8838,83 +10759,83 @@
       </c>
     </row>
     <row r="4" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>4</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>2</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>2</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>2</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>4</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="4">
         <v>2</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="19" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="19" t="s">
+      <c r="N5" s="6"/>
+      <c r="O5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="19" t="s">
+      <c r="R5" s="6"/>
+      <c r="S5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="T5" s="2" t="s">
@@ -8922,382 +10843,382 @@
       </c>
     </row>
     <row r="6" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>5286</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>5451</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>4559</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <v>1</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="8">
         <v>4839</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="9">
         <v>1</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="8">
         <v>5430</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="16"/>
-      <c r="C7" s="9">
+      <c r="B7" s="14"/>
+      <c r="C7" s="8">
         <v>5117</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9">
+      <c r="F7" s="10"/>
+      <c r="G7" s="8">
         <v>5433</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>2</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="9">
+      <c r="J7" s="10"/>
+      <c r="K7" s="8">
         <v>4690</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <v>2</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="9">
+      <c r="N7" s="10"/>
+      <c r="O7" s="8">
         <v>4812</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="9">
         <v>2</v>
       </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="9">
+      <c r="R7" s="10"/>
+      <c r="S7" s="8">
         <v>5433</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="9">
+      <c r="B8" s="10"/>
+      <c r="C8" s="8">
         <v>5188</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>3</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9">
+      <c r="F8" s="10"/>
+      <c r="G8" s="8">
         <v>5396</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>3</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="9">
+      <c r="J8" s="10"/>
+      <c r="K8" s="8">
         <v>4689</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <v>3</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="9">
+      <c r="N8" s="10"/>
+      <c r="O8" s="8">
         <v>4869</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="9">
         <v>3</v>
       </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="9">
+      <c r="R8" s="10"/>
+      <c r="S8" s="8">
         <v>5420</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T8" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
-      <c r="C9" s="9">
+      <c r="B9" s="10"/>
+      <c r="C9" s="8">
         <v>5288</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>4</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9">
+      <c r="F9" s="10"/>
+      <c r="G9" s="8">
         <v>5343</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>4</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="9">
+      <c r="J9" s="10"/>
+      <c r="K9" s="8">
         <v>4559</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <v>4</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="9">
+      <c r="N9" s="10"/>
+      <c r="O9" s="8">
         <v>4800</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <v>4</v>
       </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="9">
+      <c r="R9" s="10"/>
+      <c r="S9" s="8">
         <v>5473</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9">
+      <c r="B10" s="10"/>
+      <c r="C10" s="8">
         <v>5047</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>5</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9">
+      <c r="F10" s="10"/>
+      <c r="G10" s="8">
         <v>5356</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>5</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="9">
+      <c r="J10" s="10"/>
+      <c r="K10" s="8">
         <v>4551</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <v>5</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="9">
+      <c r="N10" s="10"/>
+      <c r="O10" s="8">
         <v>4710</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="9">
         <v>5</v>
       </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="9">
+      <c r="R10" s="10"/>
+      <c r="S10" s="8">
         <v>5264</v>
       </c>
-      <c r="T10" s="10">
+      <c r="T10" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="9">
+      <c r="B11" s="10"/>
+      <c r="C11" s="8">
         <v>5021</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>6</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="9">
+      <c r="F11" s="10"/>
+      <c r="G11" s="8">
         <v>5423</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>6</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="9">
+      <c r="J11" s="10"/>
+      <c r="K11" s="8">
         <v>4612</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <v>6</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="9">
+      <c r="N11" s="10"/>
+      <c r="O11" s="8">
         <v>4804</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="9">
         <v>6</v>
       </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="9">
+      <c r="R11" s="10"/>
+      <c r="S11" s="8">
         <v>5333</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="9">
+      <c r="B12" s="10"/>
+      <c r="C12" s="8">
         <v>5046</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>7</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9">
+      <c r="F12" s="10"/>
+      <c r="G12" s="8">
         <v>5305</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>7</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="9">
+      <c r="J12" s="10"/>
+      <c r="K12" s="8">
         <v>4722</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <v>7</v>
       </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="9">
+      <c r="N12" s="10"/>
+      <c r="O12" s="8">
         <v>4807</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="9">
         <v>7</v>
       </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="9">
+      <c r="R12" s="10"/>
+      <c r="S12" s="8">
         <v>5224</v>
       </c>
-      <c r="T12" s="10">
+      <c r="T12" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="11"/>
-      <c r="C13" s="9">
+      <c r="B13" s="10"/>
+      <c r="C13" s="8">
         <v>5026</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>8</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9">
+      <c r="F13" s="10"/>
+      <c r="G13" s="8">
         <v>5393</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>8</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="9">
+      <c r="J13" s="10"/>
+      <c r="K13" s="8">
         <v>4685</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <v>8</v>
       </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="9">
+      <c r="N13" s="10"/>
+      <c r="O13" s="8">
         <v>4859</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="9">
         <v>8</v>
       </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="9">
+      <c r="R13" s="10"/>
+      <c r="S13" s="8">
         <v>5497</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T13" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="11"/>
-      <c r="C14" s="9">
+      <c r="B14" s="10"/>
+      <c r="C14" s="8">
         <v>5062</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>9</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9">
+      <c r="F14" s="10"/>
+      <c r="G14" s="8">
         <v>5424</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>9</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="9">
+      <c r="J14" s="10"/>
+      <c r="K14" s="8">
         <v>4543</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <v>9</v>
       </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="9">
+      <c r="N14" s="10"/>
+      <c r="O14" s="8">
         <v>4885</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="9">
         <v>9</v>
       </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="9">
+      <c r="R14" s="10"/>
+      <c r="S14" s="8">
         <v>5352</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T14" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12">
         <v>5032</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>10</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13">
+      <c r="F15" s="11"/>
+      <c r="G15" s="12">
         <v>5444</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>10</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13">
+      <c r="J15" s="11"/>
+      <c r="K15" s="12">
         <v>4503</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="13">
         <v>10</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="13">
+      <c r="N15" s="11"/>
+      <c r="O15" s="12">
         <v>4846</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="13">
         <v>10</v>
       </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="13">
+      <c r="R15" s="11"/>
+      <c r="S15" s="12">
         <v>5298</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15" s="13">
         <v>10</v>
       </c>
     </row>
@@ -9307,14 +11228,14 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
@@ -9323,19 +11244,19 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>4</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -9346,102 +11267,102 @@
       <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>5311</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
-      <c r="C22" s="9">
+      <c r="B22" s="10"/>
+      <c r="C22" s="8">
         <v>4864</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="11"/>
-      <c r="C23" s="9">
+      <c r="B23" s="10"/>
+      <c r="C23" s="8">
         <v>4836</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="11"/>
-      <c r="C24" s="9">
+      <c r="B24" s="10"/>
+      <c r="C24" s="8">
         <v>5012</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="11"/>
-      <c r="C25" s="9">
+      <c r="B25" s="10"/>
+      <c r="C25" s="8">
         <v>4994</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="11"/>
-      <c r="C26" s="9">
+      <c r="B26" s="10"/>
+      <c r="C26" s="8">
         <v>4983</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
-      <c r="C27" s="9">
+      <c r="B27" s="10"/>
+      <c r="C27" s="8">
         <v>4811</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
-      <c r="C28" s="9">
+      <c r="B28" s="10"/>
+      <c r="C28" s="8">
         <v>4881</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="11"/>
-      <c r="C29" s="9">
+      <c r="B29" s="10"/>
+      <c r="C29" s="8">
         <v>4791</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="13">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12">
         <v>4821</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9451,10 +11372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098E1D81-2FA2-A24F-A1EE-CB8A69EC6ABF}">
-  <dimension ref="B2:T30"/>
+  <dimension ref="B2:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScale="169" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView topLeftCell="E11" zoomScale="169" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9477,62 +11398,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="J2" s="15" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="N2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="R2" s="15" t="s">
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="R2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="7"/>
+      <c r="R3" s="6"/>
       <c r="S3" s="1" t="s">
         <v>1</v>
       </c>
@@ -9541,83 +11462,83 @@
       </c>
     </row>
     <row r="4" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>4</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>2</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>2</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>2</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>4</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="4">
         <v>2</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="19" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="19" t="s">
+      <c r="N5" s="6"/>
+      <c r="O5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="19" t="s">
+      <c r="R5" s="6"/>
+      <c r="S5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="T5" s="2" t="s">
@@ -9628,391 +11549,413 @@
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>5253</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>4892</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>2791</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <v>1</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="8">
         <v>2100</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="9">
         <v>1</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="8">
         <v>2185</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="C7" s="9">
+      <c r="B7" s="10"/>
+      <c r="C7" s="8">
         <v>5310</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9">
+      <c r="F7" s="10"/>
+      <c r="G7" s="8">
         <v>4944</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>2</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="9">
+      <c r="J7" s="10"/>
+      <c r="K7" s="8">
         <v>2811</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <v>2</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="9">
+      <c r="N7" s="10"/>
+      <c r="O7" s="8">
         <v>2130</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="9">
         <v>2</v>
       </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="9">
+      <c r="R7" s="10"/>
+      <c r="S7" s="8">
         <v>2184</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="9">
+      <c r="B8" s="10"/>
+      <c r="C8" s="8">
         <v>5405</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>3</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9">
+      <c r="F8" s="10"/>
+      <c r="G8" s="8">
         <v>4909</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>3</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="9">
+      <c r="J8" s="10"/>
+      <c r="K8" s="8">
         <v>2800</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <v>3</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="9">
+      <c r="N8" s="10"/>
+      <c r="O8" s="8">
         <v>2142</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="9">
         <v>3</v>
       </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="9">
+      <c r="R8" s="10"/>
+      <c r="S8" s="8">
         <v>2170</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T8" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
-      <c r="C9" s="9">
+      <c r="B9" s="10"/>
+      <c r="C9" s="8">
         <v>5325</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>4</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9">
+      <c r="F9" s="10"/>
+      <c r="G9" s="8">
         <v>4920</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>4</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="9">
+      <c r="J9" s="10"/>
+      <c r="K9" s="8">
         <v>2800</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <v>4</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="9">
+      <c r="N9" s="10"/>
+      <c r="O9" s="8">
         <v>2126</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <v>4</v>
       </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="9">
+      <c r="R9" s="10"/>
+      <c r="S9" s="8">
         <v>2192</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9">
+      <c r="B10" s="10"/>
+      <c r="C10" s="8">
         <v>5327</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>5</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9">
+      <c r="F10" s="10"/>
+      <c r="G10" s="8">
         <v>4918</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>5</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="9">
+      <c r="J10" s="10"/>
+      <c r="K10" s="8">
         <v>2791</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <v>5</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="9">
+      <c r="N10" s="10"/>
+      <c r="O10" s="8">
         <v>2148</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="9">
         <v>5</v>
       </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="9">
+      <c r="R10" s="10"/>
+      <c r="S10" s="8">
         <v>2194</v>
       </c>
-      <c r="T10" s="10">
+      <c r="T10" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="9">
+      <c r="B11" s="10"/>
+      <c r="C11" s="8">
         <v>5242</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>6</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="9">
+      <c r="F11" s="10"/>
+      <c r="G11" s="8">
         <v>4916</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>6</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="21">
+      <c r="J11" s="10"/>
+      <c r="K11" s="19">
         <v>2810</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <v>6</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="9">
+      <c r="N11" s="10"/>
+      <c r="O11" s="8">
         <v>2108</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="9">
         <v>6</v>
       </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="9">
+      <c r="R11" s="10"/>
+      <c r="S11" s="8">
         <v>2227</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="9">
+      <c r="B12" s="10"/>
+      <c r="C12" s="8">
         <v>5261</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>7</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9">
+      <c r="F12" s="10"/>
+      <c r="G12" s="8">
         <v>4951</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>7</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="9">
+      <c r="J12" s="10"/>
+      <c r="K12" s="8">
         <v>2785</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <v>7</v>
       </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="9">
+      <c r="N12" s="10"/>
+      <c r="O12" s="8">
         <v>2333</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="9">
         <v>7</v>
       </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="9">
+      <c r="R12" s="10"/>
+      <c r="S12" s="8">
         <v>2164</v>
       </c>
-      <c r="T12" s="10">
+      <c r="T12" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="11"/>
-      <c r="C13" s="9">
+      <c r="B13" s="10"/>
+      <c r="C13" s="8">
         <v>5288</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>8</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9">
+      <c r="F13" s="10"/>
+      <c r="G13" s="8">
         <v>4919</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>8</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="9">
+      <c r="J13" s="10"/>
+      <c r="K13" s="8">
         <v>2777</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <v>8</v>
       </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="9">
+      <c r="N13" s="10"/>
+      <c r="O13" s="8">
         <v>2106</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="9">
         <v>8</v>
       </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="9">
+      <c r="R13" s="10"/>
+      <c r="S13" s="8">
         <v>2204</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T13" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="11"/>
-      <c r="C14" s="9">
+      <c r="B14" s="10"/>
+      <c r="C14" s="8">
         <v>5260</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>9</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9">
+      <c r="F14" s="10"/>
+      <c r="G14" s="8">
         <v>4912</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>9</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="9">
+      <c r="J14" s="10"/>
+      <c r="K14" s="8">
         <v>2812</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <v>9</v>
       </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="9">
+      <c r="N14" s="10"/>
+      <c r="O14" s="8">
         <v>2117</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="9">
         <v>9</v>
       </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="21">
+      <c r="R14" s="10"/>
+      <c r="S14" s="19">
         <v>2211</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T14" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12">
         <v>5272</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>10</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13">
+      <c r="F15" s="11"/>
+      <c r="G15" s="12">
         <v>4970</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>10</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13">
+      <c r="J15" s="11"/>
+      <c r="K15" s="12">
         <v>2778</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="13">
         <v>10</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="13">
+      <c r="N15" s="11"/>
+      <c r="O15" s="12">
         <v>2122</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="13">
         <v>10</v>
       </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="13">
+      <c r="R15" s="11"/>
+      <c r="S15" s="12">
         <v>2322</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f>AVERAGE(C6:C15)</f>
+        <v>5294.3</v>
+      </c>
+      <c r="G16">
+        <f>AVERAGE(G6:G15)</f>
+        <v>4925.1000000000004</v>
+      </c>
+      <c r="K16">
+        <f>AVERAGE(K6:K15)</f>
+        <v>2795.5</v>
+      </c>
+      <c r="O16">
+        <f>AVERAGE(O6:O15)</f>
+        <v>2143.1999999999998</v>
+      </c>
+      <c r="S16">
+        <f>AVERAGE(S6:S15)</f>
+        <v>2205.3000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
@@ -10020,261 +11963,248 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>4</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="19" t="s">
+    <row r="20" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>2027</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
-      <c r="C22" s="9">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="10"/>
+      <c r="C22" s="8">
         <v>2021</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>2</v>
       </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="11"/>
-      <c r="C23" s="9">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="10"/>
+      <c r="C23" s="8">
         <v>2011</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>3</v>
       </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f>K16</f>
+        <v>2795.5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="11"/>
-      <c r="C24" s="9">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="10"/>
+      <c r="C24" s="8">
         <v>2037</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>4</v>
       </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <f>O16</f>
+        <v>2143.1999999999998</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="11"/>
-      <c r="C25" s="9">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="10"/>
+      <c r="C25" s="8">
         <v>2053</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>5</v>
       </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <f>S16</f>
+        <v>2205.3000000000002</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="11"/>
-      <c r="C26" s="9">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="10"/>
+      <c r="C26" s="8">
         <v>2029</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>6</v>
       </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <f>C31</f>
+        <v>2022.3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
-      <c r="C27" s="9">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="10"/>
+      <c r="C27" s="8">
         <v>1991</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
-      <c r="C28" s="9">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="8">
         <v>1979</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="11"/>
-      <c r="C29" s="9">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="10"/>
+      <c r="C29" s="8">
         <v>2031</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="13">
+    <row r="30" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12">
         <v>2044</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f>AVERAGE(C21:C30)</f>
+        <v>2022.3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2973C34B-210D-8040-B063-05E5561CC03C}">
-  <dimension ref="B19:D68"/>
+  <dimension ref="A4:AA74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+    <row r="4" spans="25:27" x14ac:dyDescent="0.2">
+      <c r="Z4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+    <row r="5" spans="25:27" x14ac:dyDescent="0.2">
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>2795.5</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+    <row r="6" spans="25:27" x14ac:dyDescent="0.2">
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>2143.1999999999998</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+    <row r="7" spans="25:27" x14ac:dyDescent="0.2">
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <v>2205.3000000000002</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+    <row r="8" spans="25:27" x14ac:dyDescent="0.2">
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="Z8">
+        <v>2022.3</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
@@ -10284,7 +12214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>18</v>
       </c>
@@ -10292,7 +12222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>19</v>
       </c>
@@ -10300,7 +12230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>21</v>
       </c>
@@ -10308,12 +12238,58 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>22</v>
       </c>
       <c r="D68" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="22"/>
+      <c r="C72" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="22"/>
+      <c r="C73" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Estadisticas.xlsx
+++ b/Estadisticas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\proyecto-Threads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A14C07-A51A-4892-AF8E-4B419D3F3A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D954632D-98A4-43E7-A6C7-C84EE8F8C63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{289B63FF-1DC6-F343-9452-A160B45A3503}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{289B63FF-1DC6-F343-9452-A160B45A3503}"/>
   </bookViews>
   <sheets>
     <sheet name="Funciones" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="112">
   <si>
     <t>Caso</t>
   </si>
@@ -402,9 +402,9 @@
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000000000_-;\-* #,##0.000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
-    <numFmt numFmtId="167" formatCode="0.00000%"/>
-    <numFmt numFmtId="174" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.00000%"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -739,13 +739,13 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1302,6 +1302,446 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Secuencial C1H1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Funciones</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Funciones!$C$6:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5062</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38AE-C644-A90B-E5FD95C7C394}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Archivos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Archivos!$C$6:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5261</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5260</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38AE-C644-A90B-E5FD95C7C394}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="841401232"/>
+        <c:axId val="841402960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="841401232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="841402960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="841402960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="841401232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1801,7 +2241,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2127,2135 +2567,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-GT"/>
-              <a:t>Tiempo</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-GT" baseline="0"/>
-              <a:t> Paralelización Archivos</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-GT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>[2]Ejecuciones!$A$4:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2 core - 2 hilos</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 core - 4 hilos</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2 core - 8 hilos</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 core - 8 hilos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[2]Ejecuciones!$L$4:$L$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>9.8589999999999982</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.169999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-48B3-4F40-A314-A0F7D69FF58F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2000113695"/>
-        <c:axId val="2000115615"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2000113695"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2000115615"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2000115615"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2000113695"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-GT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-GT" baseline="0"/>
-              <a:t>Tiempo Paralelización Funciones</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-GT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>[2]Ejecuciones!$A$12:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2 core - 2 hilos</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 core - 4 hilos</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2 core - 8 hilos</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 core - 8 hilos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[2]Ejecuciones!$L$12:$L$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>17.489000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.316000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.627999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.582000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-847D-479D-A1E1-0225831D219A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2000116095"/>
-        <c:axId val="2000111295"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2000116095"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2000111295"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2000111295"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2000116095"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-GT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-GT"/>
-              <a:t>Cambio de</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-GT" baseline="0"/>
-              <a:t> tiempo paralelización archivos</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-GT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[2]Ejecuciones!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2 core - 2 hilos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>[2]Ejecuciones!$B$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>9.57</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.84</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.42</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.49</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.7899999999999991</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.6300000000000008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.67</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F5F5-4358-A0B5-A42FC0E6F336}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[2]Ejecuciones!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2 core - 4 hilos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>[2]Ejecuciones!$B$5:$K$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>9.15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.94</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.49</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.0500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.68</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.48</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.210000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.2200000000000006</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0399999999999991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F5F5-4358-A0B5-A42FC0E6F336}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[2]Ejecuciones!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2 core - 8 hilos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>[2]Ejecuciones!$B$6:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>18.46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.34</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.260000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.559999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F5F5-4358-A0B5-A42FC0E6F336}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[2]Ejecuciones!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4 core - 8 hilos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>[2]Ejecuciones!$B$7:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10.41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.77</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.89</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.8800000000000008</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F5F5-4358-A0B5-A42FC0E6F336}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="45683200"/>
-        <c:axId val="45685120"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[2]Ejecuciones!$A$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>1 core - 1 hilo</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[2]Ejecuciones!$B$2:$K$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>17.059999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>16.96</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>17.12</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>16.89</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>17.46</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>17.059999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>17.52</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>17.62</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>17.440000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>16.7</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-F5F5-4358-A0B5-A42FC0E6F336}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[2]Ejecuciones!$A$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>1 core - 4 hilos</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[2]Ejecuciones!$B$3:$K$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>17.670000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>19.48</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>17.73</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>17.989999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>17.829999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>18.100000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>17.760000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>17.57</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>17.61</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>18.2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-F5F5-4358-A0B5-A42FC0E6F336}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="45683200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="45685120"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="45685120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="45683200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-GT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-GT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-GT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Cambio de tiempo paralelización funciones</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-GT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[2]Ejecuciones!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2 core - 2 hilos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>[2]Ejecuciones!$B$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>17.670000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.37</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.54</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.97</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9620-4C77-BB92-200A9838CA4B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[2]Ejecuciones!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2 core - 4 hilos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>[2]Ejecuciones!$B$13:$K$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>18.28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.440000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.96</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.649999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.37</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.690000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9620-4C77-BB92-200A9838CA4B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[2]Ejecuciones!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2 core - 8 hilos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>[2]Ejecuciones!$B$14:$K$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>18.489999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.63</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.71</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.96</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.77</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.510000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.57</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.48</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.66</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9620-4C77-BB92-200A9838CA4B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[2]Ejecuciones!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4 core - 8 hilos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>[2]Ejecuciones!$B$15:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>18.64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.54</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.59</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.510000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.71</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.47</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.34</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.46</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9620-4C77-BB92-200A9838CA4B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="36326928"/>
-        <c:axId val="36329328"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[2]Ejecuciones!$A$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>1 core - 1 hilo</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[2]Ejecuciones!$B$10:$K$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>17.39</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>17.55</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>17.36</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>17.43</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>17.190000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>16.920000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>17.309999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>16.71</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>16.98</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>17.68</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-9620-4C77-BB92-200A9838CA4B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[2]Ejecuciones!$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>1 core - 4 hilos</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[2]Ejecuciones!$B$11:$K$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>18.809999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>18.47</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>18.829999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>18.36</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>18.89</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>18.53</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>18.2</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>18.82</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>19.14</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>18.75</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-9620-4C77-BB92-200A9838CA4B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="36326928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="36329328"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="36329328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="36326928"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-GT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-GT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4383,34 +2695,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>17.059999999999999</c:v>
+                  <c:v>17060</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.96</c:v>
+                  <c:v>16960</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.12</c:v>
+                  <c:v>17120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.89</c:v>
+                  <c:v>16890</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.46</c:v>
+                  <c:v>17460</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.059999999999999</c:v>
+                  <c:v>17060</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.52</c:v>
+                  <c:v>17520</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.62</c:v>
+                  <c:v>17620</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.440000000000001</c:v>
+                  <c:v>17440</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.7</c:v>
+                  <c:v>16700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4467,34 +2779,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>17.670000000000002</c:v>
+                  <c:v>17670</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.48</c:v>
+                  <c:v>19480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.73</c:v>
+                  <c:v>17730</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.989999999999998</c:v>
+                  <c:v>17990</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.829999999999998</c:v>
+                  <c:v>17830</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.100000000000001</c:v>
+                  <c:v>18100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.760000000000002</c:v>
+                  <c:v>17760</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.57</c:v>
+                  <c:v>17570</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.61</c:v>
+                  <c:v>17610</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.2</c:v>
+                  <c:v>18200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4708,7 +3020,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4828,34 +3140,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>17.39</c:v>
+                  <c:v>17390</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.55</c:v>
+                  <c:v>17550</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.36</c:v>
+                  <c:v>17360</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.43</c:v>
+                  <c:v>17430</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.190000000000001</c:v>
+                  <c:v>17190</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.920000000000002</c:v>
+                  <c:v>16920</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.309999999999999</c:v>
+                  <c:v>17310</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.71</c:v>
+                  <c:v>16710</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.98</c:v>
+                  <c:v>16980</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.68</c:v>
+                  <c:v>17680</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4912,34 +3224,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>18.809999999999999</c:v>
+                  <c:v>18810</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.47</c:v>
+                  <c:v>18470</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.829999999999998</c:v>
+                  <c:v>18830</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.36</c:v>
+                  <c:v>18360</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.89</c:v>
+                  <c:v>18890</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.53</c:v>
+                  <c:v>18530</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.2</c:v>
+                  <c:v>18200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.82</c:v>
+                  <c:v>18820</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.14</c:v>
+                  <c:v>19140</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.75</c:v>
+                  <c:v>18750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5109,6 +3421,1887 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Cambio de tiempo paralelización archivos</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráficas pc Mario'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 core - 2 hilos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráficas pc Mario'!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9570</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11380</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9420</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9490</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9790</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9630</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15BE-4278-BB14-48DDF037040E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráficas pc Mario'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 core - 4 hilos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráficas pc Mario'!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8940</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9490</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9680</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9220</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15BE-4278-BB14-48DDF037040E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráficas pc Mario'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 core - 8 hilos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráficas pc Mario'!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18460</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18070</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18260</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-15BE-4278-BB14-48DDF037040E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráficas pc Mario'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 core - 8 hilos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráficas pc Mario'!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10410</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10140</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9770</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9890</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9880</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-15BE-4278-BB14-48DDF037040E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1916093263"/>
+        <c:axId val="1916081743"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1916093263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1916081743"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1916081743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1916093263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Cambio de tiempo paralelización funciones</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráficas pc Mario'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 core - 2 hilos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráficas pc Mario'!$B$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>17670</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17420</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17370</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17640</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17630</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17310</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17540</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17640</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16970</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B665-47A4-A5CD-D98F33AF0566}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráficas pc Mario'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 core - 4 hilos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráficas pc Mario'!$B$13:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18280</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17960</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18650</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18370</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18140</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18690</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B665-47A4-A5CD-D98F33AF0566}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráficas pc Mario'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 core - 8 hilos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráficas pc Mario'!$B$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18490</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18630</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18710</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18960</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18770</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18510</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18570</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18480</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18660</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B665-47A4-A5CD-D98F33AF0566}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráficas pc Mario'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 core - 8 hilos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráficas pc Mario'!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18410</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18540</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18590</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18510</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18710</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18470</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18340</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B665-47A4-A5CD-D98F33AF0566}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2042527167"/>
+        <c:axId val="2042534847"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2042527167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2042534847"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2042534847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2042527167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Tiempo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-GT" baseline="0"/>
+              <a:t> promedio paralelización archivos</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gráficas pc Mario'!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2 core - 2 hilos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 core - 4 hilos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 core - 8 hilos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 core - 8 hilos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráficas pc Mario'!$L$4:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9858.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18554.000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10169.999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62BE-4AE3-8FB3-1FD8881F0630}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2029079823"/>
+        <c:axId val="2029065903"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2029079823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2029065903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2029065903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2029079823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Tiempo promedio paralelización funciones</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gráficas pc Mario'!$A$12:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2 core - 2 hilos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 core - 4 hilos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 core - 8 hilos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 core - 8 hilos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráficas pc Mario'!$L$12:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18316.000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18627.999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-342E-4B6B-806D-0FE5383F2364}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2029073103"/>
+        <c:axId val="2029071663"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2029073103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2029071663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2029071663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2029073103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5632,6 +5825,333 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Tiempos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-GT" baseline="0"/>
+              <a:t> Paralelización Funciones</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Funciones!$F$20:$F$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>C2H2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C2H4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C2H8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C4H8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Funciones!$G$20:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4611.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4823.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5372.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4930.3999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2213-474D-AE14-94C18001079B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="75659967"/>
+        <c:axId val="75683487"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="75659967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75683487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75683487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75659967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Tiempos paralelización archivos</a:t>
             </a:r>
@@ -5924,7 +6444,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -6373,7 +6893,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -6464,7 +6984,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strLit>
@@ -6563,7 +7095,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strLit>
@@ -6662,7 +7206,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strLit>
@@ -6761,7 +7317,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strLit>
@@ -6852,6 +7420,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="133208367"/>
         <c:axId val="133205551"/>
@@ -6874,7 +7443,19 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:marker>
-                  <c:symbol val="none"/>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
                 </c:marker>
                 <c:val>
                   <c:numRef>
@@ -6943,7 +7524,19 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:marker>
-                  <c:symbol val="none"/>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
                 </c:marker>
                 <c:val>
                   <c:numRef>
@@ -6988,7 +7581,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-4E84-7746-82BC-5A4AF6BA5FD6}"/>
                   </c:ext>
@@ -7005,6 +7598,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7217,7 +7811,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -7732,7 +8326,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -8153,7 +8747,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -8244,7 +8838,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strLit>
@@ -8343,7 +8949,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strLit>
@@ -8442,7 +9060,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strLit>
@@ -8541,7 +9171,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strLit>
@@ -8632,6 +9274,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="254327776"/>
         <c:axId val="254151168"/>
@@ -8654,7 +9297,19 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:marker>
-                  <c:symbol val="none"/>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
                 </c:marker>
                 <c:val>
                   <c:numRef>
@@ -8723,7 +9378,19 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:marker>
-                  <c:symbol val="none"/>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
                 </c:marker>
                 <c:val>
                   <c:numRef>
@@ -8768,7 +9435,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-561F-444D-A652-43B9751125AE}"/>
                   </c:ext>
@@ -8785,6 +9452,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8849,6 +9517,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8893,7 +9591,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8955,446 +9653,6 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-GT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Secuencial C1H1</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-GT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Funciones</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:val>
-            <c:numRef>
-              <c:f>Funciones!$C$6:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5286</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5117</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5188</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5288</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5047</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5021</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5046</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5062</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5032</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-38AE-C644-A90B-E5FD95C7C394}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Archivos</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:val>
-            <c:numRef>
-              <c:f>Archivos!$C$6:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5253</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5310</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5405</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5325</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5327</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5242</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5261</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5288</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5260</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5272</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-38AE-C644-A90B-E5FD95C7C394}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="841401232"/>
-        <c:axId val="841402960"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="841401232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="841402960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="841402960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="841401232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-GT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="es-GT"/>
     </a:p>
@@ -9767,6 +10025,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11094,7 +11392,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11202,11 +11500,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -11217,11 +11510,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -11253,9 +11541,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11610,7 +11895,7 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11718,6 +12003,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -11728,6 +12018,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -11759,6 +12054,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11814,23 +12112,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -11880,14 +12177,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:floor>
@@ -11940,8 +12232,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12005,17 +12297,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -12084,20 +12365,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -12131,7 +12411,7 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12335,23 +12615,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -12401,14 +12680,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:floor>
@@ -12461,8 +12735,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12526,17 +12800,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -12605,20 +12868,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -12652,7 +12914,7 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12760,11 +13022,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -12775,11 +13032,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -12811,9 +13063,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -13168,7 +13417,7 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13276,11 +13525,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -13291,11 +13535,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -13327,9 +13566,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14689,7 +14925,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15192,8 +15428,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -15301,11 +15537,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -15316,11 +15547,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -15352,9 +15578,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -15708,7 +15931,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16211,7 +16434,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16727,8 +16950,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -17230,8 +17453,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -17339,6 +17562,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -17349,6 +17577,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -17380,6 +17613,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -17733,8 +17969,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -17842,11 +18078,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -17857,11 +18088,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -17893,9 +18119,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -18249,7 +18472,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18399,6 +18622,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -18821,6 +19560,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D675956-2765-6FC5-BC3B-315DD991C457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19308,158 +20083,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA2845B-97D6-4FD3-AF87-65037F78A40E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F888E37A-9AA6-4257-9897-96C14091A84B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EBC291-D448-4CCA-B5B8-8C6C72251DF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABF9CE2-5DAD-4930-A416-8C43987ABE78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
@@ -19487,7 +20110,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19512,6 +20135,150 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D1E9FB-8C6B-9981-44C5-179A8BB5795E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>627061</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>650874</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB3F17C-CF09-648D-6895-F9ACE26890B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>627062</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F959C62-A8A5-D364-AD19-9DFFD6ACBAAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78BDA3B-DAC4-FFF2-F1AD-BA736545C00D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>73024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Gráfico 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C298FD-E41D-855B-32CC-B3E6561C05A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20318,8 +21085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD7CE44-C1D4-404F-9172-6C3361010C9C}">
   <dimension ref="B1:T42"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20359,31 +21126,31 @@
       </c>
     </row>
     <row r="2" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="F2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="J2" s="26" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="J2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="R2" s="26" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="R2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -20891,14 +21658,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26" t="s">
+    <row r="17" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
         <v>1</v>
@@ -20906,8 +21673,15 @@
       <c r="D18" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18">
+        <f>+AVERAGE(C6:C15)</f>
+        <v>5111.3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>0</v>
       </c>
@@ -20917,8 +21691,15 @@
       <c r="D19" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19">
+        <f>+AVERAGE(G6:G15)</f>
+        <v>5396.8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="17" t="s">
         <v>8</v>
@@ -20926,8 +21707,15 @@
       <c r="D20" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <f>+AVERAGE(K6:K15)</f>
+        <v>4611.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
@@ -20937,8 +21725,15 @@
       <c r="D21" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <f>+AVERAGE(O6:O15)</f>
+        <v>4823.1000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="8">
         <v>4864</v>
@@ -20946,8 +21741,15 @@
       <c r="D22" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22">
+        <f>+AVERAGE(S6:S15)</f>
+        <v>5372.4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" s="8">
         <v>4836</v>
@@ -20955,8 +21757,15 @@
       <c r="D23" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23">
+        <f>+AVERAGE(C21:C30)</f>
+        <v>4930.3999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="8">
         <v>5012</v>
@@ -20965,7 +21774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" s="8">
         <v>4994</v>
@@ -20974,7 +21783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="8">
         <v>4983</v>
@@ -20983,7 +21792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="8">
         <v>4811</v>
@@ -20992,7 +21801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="8">
         <v>4881</v>
@@ -21001,7 +21810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="C29" s="8">
         <v>4791</v>
@@ -21010,7 +21819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="11"/>
       <c r="C30" s="12">
         <v>4821</v>
@@ -21019,7 +21828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>111</v>
       </c>
@@ -21126,8 +21935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098E1D81-2FA2-A24F-A1EE-CB8A69EC6ABF}">
   <dimension ref="B2:T43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="65" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="A13" zoomScale="65" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21150,31 +21959,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="F2" s="26" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="J2" s="26" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="J2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="R2" s="26" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="R2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -21700,11 +22509,11 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
@@ -21983,8 +22792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2973C34B-210D-8040-B063-05E5561CC03C}">
   <dimension ref="A4:AA74"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22143,8 +22952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF83EA7-BB78-490A-8843-E772583B6A5A}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22473,7 +23282,7 @@
       <c r="A22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="26">
         <f>1/(B19+(B20/B21))</f>
         <v>1</v>
       </c>
@@ -22532,7 +23341,7 @@
       <c r="C27" s="8">
         <v>1.3333333333333333</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="27">
         <f>+(C27-C25)/C25</f>
         <v>0.33333333333333326</v>
       </c>
@@ -22548,11 +23357,11 @@
       <c r="C28" s="8">
         <v>1.5977138061819467</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="27">
         <f>+(C28-C27)/C27</f>
         <v>0.19828535463646008</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="27">
         <f>+(C28-$C$27)/$C$27</f>
         <v>0.19828535463646008</v>
       </c>
@@ -22567,11 +23376,11 @@
       <c r="C29" s="8">
         <v>1.7699115044247788</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="27">
         <f t="shared" ref="D29" si="4">+(C29-C28)/C28</f>
         <v>0.10777756164874899</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <f t="shared" ref="E29" si="5">+(C29-$C$27)/$C$27</f>
         <v>0.32743362831858419</v>
       </c>
@@ -22586,8 +23395,8 @@
       <c r="C30" s="8">
         <v>2.8776978417266186</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
@@ -22612,7 +23421,7 @@
       <c r="C32" s="8">
         <v>1.0000408745592813</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="28">
         <f>+(C32-C25)/C25</f>
         <v>4.0874559281256495E-5</v>
       </c>
@@ -22628,11 +23437,11 @@
       <c r="C33" s="8">
         <v>1.0000459837944906</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="29">
         <f>+(C33-C32)/C32</f>
         <v>5.1090263801534893E-6</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="29">
         <f>+(C33-$C$32)/$C$32</f>
         <v>5.1090263801534893E-6</v>
       </c>
@@ -22647,11 +23456,11 @@
       <c r="C34" s="8">
         <v>1.0000536477451922</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="29">
         <f t="shared" ref="D34" si="6">+(C34-C33)/C33</f>
         <v>7.6635983002903273E-6</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="29">
         <f t="shared" ref="E34" si="7">+(C34-$C$32)/$C$32</f>
         <v>1.27726638339697E-5</v>
       </c>
@@ -22666,8 +23475,8 @@
       <c r="C35" s="8">
         <v>1.0000804737764066</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22678,8 +23487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE907A1F-A30C-4748-9401-05E3F95B63A5}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView topLeftCell="A31" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22728,38 +23537,37 @@
         <v>58</v>
       </c>
       <c r="B2">
-        <v>17.059999999999999</v>
+        <v>17060</v>
       </c>
       <c r="C2">
-        <v>16.96</v>
+        <v>16960</v>
       </c>
       <c r="D2">
-        <v>17.12</v>
+        <v>17120</v>
       </c>
       <c r="E2">
-        <v>16.89</v>
+        <v>16890</v>
       </c>
       <c r="F2">
-        <v>17.46</v>
+        <v>17460</v>
       </c>
       <c r="G2">
-        <v>17.059999999999999</v>
+        <v>17060</v>
       </c>
       <c r="H2">
-        <v>17.52</v>
+        <v>17520</v>
       </c>
       <c r="I2">
-        <v>17.62</v>
+        <v>17620</v>
       </c>
       <c r="J2">
-        <v>17.440000000000001</v>
+        <v>17440</v>
       </c>
       <c r="K2">
-        <v>16.7</v>
+        <v>16700</v>
       </c>
       <c r="L2">
-        <f>AVERAGE(B2:K2)</f>
-        <v>17.183</v>
+        <v>17183</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -22767,38 +23575,37 @@
         <v>59</v>
       </c>
       <c r="B3">
-        <v>17.670000000000002</v>
+        <v>17670</v>
       </c>
       <c r="C3">
-        <v>19.48</v>
+        <v>19480</v>
       </c>
       <c r="D3">
-        <v>17.73</v>
+        <v>17730</v>
       </c>
       <c r="E3">
-        <v>17.989999999999998</v>
+        <v>17990</v>
       </c>
       <c r="F3">
-        <v>17.829999999999998</v>
+        <v>17830</v>
       </c>
       <c r="G3">
-        <v>18.100000000000001</v>
+        <v>18100</v>
       </c>
       <c r="H3">
-        <v>17.760000000000002</v>
+        <v>17760</v>
       </c>
       <c r="I3">
-        <v>17.57</v>
+        <v>17570</v>
       </c>
       <c r="J3">
-        <v>17.61</v>
+        <v>17610</v>
       </c>
       <c r="K3">
-        <v>18.2</v>
+        <v>18200</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L7" si="0">AVERAGE(B3:K3)</f>
-        <v>17.994</v>
+        <v>17994</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -22806,38 +23613,37 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>9.57</v>
+        <v>9570</v>
       </c>
       <c r="C4">
-        <v>10.16</v>
+        <v>10160</v>
       </c>
       <c r="D4">
-        <v>9.84</v>
+        <v>9840</v>
       </c>
       <c r="E4">
-        <v>11.38</v>
+        <v>11380</v>
       </c>
       <c r="F4">
-        <v>9.64</v>
+        <v>9640</v>
       </c>
       <c r="G4">
-        <v>9.42</v>
+        <v>9420</v>
       </c>
       <c r="H4">
-        <v>9.49</v>
+        <v>9490</v>
       </c>
       <c r="I4">
-        <v>9.7899999999999991</v>
+        <v>9790</v>
       </c>
       <c r="J4">
-        <v>9.6300000000000008</v>
+        <v>9630</v>
       </c>
       <c r="K4">
-        <v>9.67</v>
+        <v>9670</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
-        <v>9.8589999999999982</v>
+        <v>9858.9999999999982</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -22845,38 +23651,37 @@
         <v>61</v>
       </c>
       <c r="B5">
-        <v>9.15</v>
+        <v>9150</v>
       </c>
       <c r="C5">
-        <v>8.94</v>
+        <v>8940</v>
       </c>
       <c r="D5">
-        <v>9.49</v>
+        <v>9490</v>
       </c>
       <c r="E5">
-        <v>9.24</v>
+        <v>9240</v>
       </c>
       <c r="F5">
-        <v>9.0500000000000007</v>
+        <v>9050</v>
       </c>
       <c r="G5">
-        <v>9.68</v>
+        <v>9680</v>
       </c>
       <c r="H5">
-        <v>9.48</v>
+        <v>9480</v>
       </c>
       <c r="I5">
-        <v>10.210000000000001</v>
+        <v>10210</v>
       </c>
       <c r="J5">
-        <v>9.2200000000000006</v>
+        <v>9220</v>
       </c>
       <c r="K5">
-        <v>9.0399999999999991</v>
+        <v>9040</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>9.35</v>
+        <v>9350</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -22884,38 +23689,37 @@
         <v>62</v>
       </c>
       <c r="B6">
-        <v>18.46</v>
+        <v>18460</v>
       </c>
       <c r="C6">
-        <v>18.95</v>
+        <v>18950</v>
       </c>
       <c r="D6">
-        <v>18.07</v>
+        <v>18070</v>
       </c>
       <c r="E6">
-        <v>18.3</v>
+        <v>18300</v>
       </c>
       <c r="F6">
-        <v>18.18</v>
+        <v>18180</v>
       </c>
       <c r="G6">
-        <v>18.399999999999999</v>
+        <v>18400</v>
       </c>
       <c r="H6">
-        <v>18.34</v>
+        <v>18340</v>
       </c>
       <c r="I6">
-        <v>18.260000000000002</v>
+        <v>18260</v>
       </c>
       <c r="J6">
-        <v>20.02</v>
+        <v>20020</v>
       </c>
       <c r="K6">
-        <v>18.559999999999999</v>
+        <v>18560</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>18.554000000000002</v>
+        <v>18554.000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -22923,38 +23727,37 @@
         <v>63</v>
       </c>
       <c r="B7">
-        <v>10.41</v>
+        <v>10410</v>
       </c>
       <c r="C7">
-        <v>10.16</v>
+        <v>10160</v>
       </c>
       <c r="D7">
-        <v>10.16</v>
+        <v>10160</v>
       </c>
       <c r="E7">
-        <v>10.14</v>
+        <v>10140</v>
       </c>
       <c r="F7">
-        <v>10.99</v>
+        <v>10990</v>
       </c>
       <c r="G7">
-        <v>10.199999999999999</v>
+        <v>10200</v>
       </c>
       <c r="H7">
-        <v>10.1</v>
+        <v>10100</v>
       </c>
       <c r="I7">
-        <v>9.77</v>
+        <v>9770</v>
       </c>
       <c r="J7">
-        <v>9.89</v>
+        <v>9890</v>
       </c>
       <c r="K7">
-        <v>9.8800000000000008</v>
+        <v>9880</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
-        <v>10.169999999999998</v>
+        <v>10169.999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -22997,38 +23800,37 @@
         <v>58</v>
       </c>
       <c r="B10">
-        <v>17.39</v>
+        <v>17390</v>
       </c>
       <c r="C10">
-        <v>17.55</v>
+        <v>17550</v>
       </c>
       <c r="D10">
-        <v>17.36</v>
+        <v>17360</v>
       </c>
       <c r="E10">
-        <v>17.43</v>
+        <v>17430</v>
       </c>
       <c r="F10">
-        <v>17.190000000000001</v>
+        <v>17190</v>
       </c>
       <c r="G10">
-        <v>16.920000000000002</v>
+        <v>16920</v>
       </c>
       <c r="H10">
-        <v>17.309999999999999</v>
+        <v>17310</v>
       </c>
       <c r="I10">
-        <v>16.71</v>
+        <v>16710</v>
       </c>
       <c r="J10">
-        <v>16.98</v>
+        <v>16980</v>
       </c>
       <c r="K10">
-        <v>17.68</v>
+        <v>17680</v>
       </c>
       <c r="L10">
-        <f>AVERAGE(B10:K10)</f>
-        <v>17.251999999999999</v>
+        <v>17252</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -23036,38 +23838,37 @@
         <v>59</v>
       </c>
       <c r="B11">
-        <v>18.809999999999999</v>
+        <v>18810</v>
       </c>
       <c r="C11">
-        <v>18.47</v>
+        <v>18470</v>
       </c>
       <c r="D11">
-        <v>18.829999999999998</v>
+        <v>18830</v>
       </c>
       <c r="E11">
-        <v>18.36</v>
+        <v>18360</v>
       </c>
       <c r="F11">
-        <v>18.89</v>
+        <v>18890</v>
       </c>
       <c r="G11">
-        <v>18.53</v>
+        <v>18530</v>
       </c>
       <c r="H11">
-        <v>18.2</v>
+        <v>18200</v>
       </c>
       <c r="I11">
-        <v>18.82</v>
+        <v>18820</v>
       </c>
       <c r="J11">
-        <v>19.14</v>
+        <v>19140</v>
       </c>
       <c r="K11">
-        <v>18.75</v>
+        <v>18750</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L15" si="1">AVERAGE(B11:K11)</f>
-        <v>18.68</v>
+        <v>18680</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -23075,38 +23876,37 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>17.670000000000002</v>
+        <v>17670</v>
       </c>
       <c r="C12">
-        <v>17.420000000000002</v>
+        <v>17420</v>
       </c>
       <c r="D12">
-        <v>17.37</v>
+        <v>17370</v>
       </c>
       <c r="E12">
-        <v>17.64</v>
+        <v>17640</v>
       </c>
       <c r="F12">
-        <v>17.63</v>
+        <v>17630</v>
       </c>
       <c r="G12">
-        <v>17.7</v>
+        <v>17700</v>
       </c>
       <c r="H12">
-        <v>17.309999999999999</v>
+        <v>17310</v>
       </c>
       <c r="I12">
-        <v>17.54</v>
+        <v>17540</v>
       </c>
       <c r="J12">
-        <v>17.64</v>
+        <v>17640</v>
       </c>
       <c r="K12">
-        <v>16.97</v>
+        <v>16970</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
-        <v>17.489000000000001</v>
+        <v>17489</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -23114,38 +23914,37 @@
         <v>61</v>
       </c>
       <c r="B13">
-        <v>18.28</v>
+        <v>18280</v>
       </c>
       <c r="C13">
-        <v>18.440000000000001</v>
+        <v>18440</v>
       </c>
       <c r="D13">
-        <v>18.25</v>
+        <v>18250</v>
       </c>
       <c r="E13">
-        <v>17.96</v>
+        <v>17960</v>
       </c>
       <c r="F13">
-        <v>18.649999999999999</v>
+        <v>18650</v>
       </c>
       <c r="G13">
-        <v>18.170000000000002</v>
+        <v>18170</v>
       </c>
       <c r="H13">
-        <v>18.21</v>
+        <v>18210</v>
       </c>
       <c r="I13">
-        <v>18.37</v>
+        <v>18370</v>
       </c>
       <c r="J13">
-        <v>18.14</v>
+        <v>18140</v>
       </c>
       <c r="K13">
-        <v>18.690000000000001</v>
+        <v>18690</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
-        <v>18.316000000000003</v>
+        <v>18316.000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -23153,38 +23952,37 @@
         <v>62</v>
       </c>
       <c r="B14">
-        <v>18.489999999999998</v>
+        <v>18490</v>
       </c>
       <c r="C14">
-        <v>18.63</v>
+        <v>18630</v>
       </c>
       <c r="D14">
-        <v>18.71</v>
+        <v>18710</v>
       </c>
       <c r="E14">
-        <v>18.96</v>
+        <v>18960</v>
       </c>
       <c r="F14">
-        <v>18.77</v>
+        <v>18770</v>
       </c>
       <c r="G14">
-        <v>18.510000000000002</v>
+        <v>18510</v>
       </c>
       <c r="H14">
-        <v>18.57</v>
+        <v>18570</v>
       </c>
       <c r="I14">
-        <v>18.48</v>
+        <v>18480</v>
       </c>
       <c r="J14">
-        <v>18.5</v>
+        <v>18500</v>
       </c>
       <c r="K14">
-        <v>18.66</v>
+        <v>18660</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
-        <v>18.627999999999997</v>
+        <v>18627.999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -23192,38 +23990,37 @@
         <v>63</v>
       </c>
       <c r="B15">
-        <v>18.64</v>
+        <v>18640</v>
       </c>
       <c r="C15">
-        <v>19.149999999999999</v>
+        <v>19150</v>
       </c>
       <c r="D15">
-        <v>18.41</v>
+        <v>18410</v>
       </c>
       <c r="E15">
-        <v>18.54</v>
+        <v>18540</v>
       </c>
       <c r="F15">
-        <v>18.59</v>
+        <v>18590</v>
       </c>
       <c r="G15">
-        <v>18.510000000000002</v>
+        <v>18510</v>
       </c>
       <c r="H15">
-        <v>18.71</v>
+        <v>18710</v>
       </c>
       <c r="I15">
-        <v>18.47</v>
+        <v>18470</v>
       </c>
       <c r="J15">
-        <v>18.34</v>
+        <v>18340</v>
       </c>
       <c r="K15">
-        <v>18.46</v>
+        <v>18460</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
-        <v>18.582000000000001</v>
+        <v>18582</v>
       </c>
     </row>
   </sheetData>
